--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1312.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1312.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.013187969748419</v>
+        <v>1.065879106521606</v>
       </c>
       <c r="B1">
-        <v>2.461937395048334</v>
+        <v>2.053476810455322</v>
       </c>
       <c r="C1">
-        <v>5.336206583803785</v>
+        <v>8.531377792358398</v>
       </c>
       <c r="D1">
-        <v>2.287442796130827</v>
+        <v>1.37977409362793</v>
       </c>
       <c r="E1">
-        <v>1.256464169710703</v>
+        <v>0.879473865032196</v>
       </c>
     </row>
   </sheetData>
